--- a/Data/ruffs_motility_ALL2021.xlsx
+++ b/Data/ruffs_motility_ALL2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jespaci2021\jespaci 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinbulla/Dropbox/Science/DATA_collection/ruff_sperm/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7C8C13-454F-4522-A3A3-ACC66442725E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97664FC7-700F-E14A-8250-C4ED49522214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{3BDB1CFA-9D6B-46E5-88A9-3D5CD8CEA765}"/>
+    <workbookView xWindow="0" yWindow="10380" windowWidth="13720" windowHeight="8400" xr2:uid="{3BDB1CFA-9D6B-46E5-88A9-3D5CD8CEA765}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -256,7 +256,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -272,7 +272,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -571,18 +571,19 @@
   <dimension ref="A1:I141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="11.77734375" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" customWidth="1"/>
-    <col min="9" max="9" width="39.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+    <col min="9" max="9" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -611,7 +612,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -637,7 +638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -663,7 +664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -689,7 +690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -715,7 +716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -741,7 +742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -767,7 +768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -793,7 +794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -819,7 +820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -845,7 +846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -871,7 +872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -897,7 +898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -923,7 +924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -949,7 +950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -975,7 +976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1001,7 +1002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1027,7 +1028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1053,7 +1054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1079,7 +1080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1105,7 +1106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1131,7 +1132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1157,7 +1158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1183,7 +1184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1209,7 +1210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1235,7 +1236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1261,7 +1262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1287,7 +1288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1313,7 +1314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1339,7 +1340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1365,7 +1366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1391,7 +1392,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -1417,7 +1418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1443,7 +1444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1469,7 +1470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -1495,7 +1496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -1521,7 +1522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -1547,7 +1548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -1573,7 +1574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -1599,7 +1600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -1625,7 +1626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -1651,7 +1652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -1677,7 +1678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -1703,7 +1704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1729,7 +1730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1755,7 +1756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1781,7 +1782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1807,7 +1808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -1833,7 +1834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>8</v>
       </c>
@@ -1859,7 +1860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -1885,7 +1886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -1911,7 +1912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -1937,7 +1938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -1963,7 +1964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -1989,7 +1990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -2015,7 +2016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -2041,7 +2042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -2067,7 +2068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2093,7 +2094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -2119,7 +2120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -2145,7 +2146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -2171,7 +2172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -2197,7 +2198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -2223,7 +2224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -2249,7 +2250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -2275,7 +2276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -2301,7 +2302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -2327,7 +2328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -2353,7 +2354,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -2379,7 +2380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -2405,7 +2406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -2431,7 +2432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -2457,7 +2458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -2483,7 +2484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -2509,7 +2510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -2535,7 +2536,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -2561,7 +2562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -2587,7 +2588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -2613,7 +2614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -2639,7 +2640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -2665,7 +2666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -2691,7 +2692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>8</v>
       </c>
@@ -2717,7 +2718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -2743,7 +2744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -2769,7 +2770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -2795,7 +2796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -2821,7 +2822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -2847,7 +2848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -2873,7 +2874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -2899,7 +2900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -2925,7 +2926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -2951,7 +2952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -2977,7 +2978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -3003,7 +3004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -3029,7 +3030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>50</v>
       </c>
@@ -3055,7 +3056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>50</v>
       </c>
@@ -3063,7 +3064,7 @@
         <v>9</v>
       </c>
       <c r="C96" s="1">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="D96" s="2">
         <v>27.559756097560978</v>
@@ -3081,7 +3082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>50</v>
       </c>
@@ -3110,7 +3111,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>50</v>
       </c>
@@ -3136,7 +3137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>50</v>
       </c>
@@ -3162,7 +3163,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>50</v>
       </c>
@@ -3188,7 +3189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>50</v>
       </c>
@@ -3214,7 +3215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>50</v>
       </c>
@@ -3240,7 +3241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>50</v>
       </c>
@@ -3266,7 +3267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>50</v>
       </c>
@@ -3292,7 +3293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>50</v>
       </c>
@@ -3318,7 +3319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>50</v>
       </c>
@@ -3344,7 +3345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>50</v>
       </c>
@@ -3373,7 +3374,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>50</v>
       </c>
@@ -3402,7 +3403,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>50</v>
       </c>
@@ -3431,7 +3432,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>50</v>
       </c>
@@ -3460,7 +3461,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>50</v>
       </c>
@@ -3486,7 +3487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>50</v>
       </c>
@@ -3512,7 +3513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>50</v>
       </c>
@@ -3538,7 +3539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>50</v>
       </c>
@@ -3564,7 +3565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>50</v>
       </c>
@@ -3590,7 +3591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>50</v>
       </c>
@@ -3616,7 +3617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>50</v>
       </c>
@@ -3642,7 +3643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>50</v>
       </c>
@@ -3668,7 +3669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>50</v>
       </c>
@@ -3694,7 +3695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>50</v>
       </c>
@@ -3720,7 +3721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>50</v>
       </c>
@@ -3746,7 +3747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>50</v>
       </c>
@@ -3772,7 +3773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>50</v>
       </c>
@@ -3798,7 +3799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>50</v>
       </c>
@@ -3824,7 +3825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>50</v>
       </c>
@@ -3850,7 +3851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>50</v>
       </c>
@@ -3876,7 +3877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>50</v>
       </c>
@@ -3905,7 +3906,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>50</v>
       </c>
@@ -3931,7 +3932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>50</v>
       </c>
@@ -3957,7 +3958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>50</v>
       </c>
@@ -3986,7 +3987,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>50</v>
       </c>
@@ -4012,7 +4013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>50</v>
       </c>
@@ -4038,7 +4039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>50</v>
       </c>
@@ -4064,7 +4065,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>50</v>
       </c>
@@ -4090,7 +4091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>50</v>
       </c>
@@ -4116,7 +4117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>50</v>
       </c>
@@ -4142,7 +4143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>50</v>
       </c>
@@ -4168,7 +4169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>50</v>
       </c>
@@ -4194,7 +4195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>50</v>
       </c>
@@ -4220,7 +4221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>50</v>
       </c>
@@ -4249,7 +4250,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>50</v>
       </c>
@@ -4280,5 +4281,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>